--- a/export/Hasil_Stowage_Plan_Final.xlsx
+++ b/export/Hasil_Stowage_Plan_Final.xlsx
@@ -1538,7 +1538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CONT1194</t>
+          <t>CONT0231</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>23.82717126450705</v>
+        <v>26.20206293485691</v>
       </c>
     </row>
     <row r="24">
@@ -1638,7 +1638,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CONT1243</t>
+          <t>CONT0718</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>22.53345214156302</v>
+        <v>22.49729354733695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CONT0644</t>
+          <t>CONT0805</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>20.8814068150331</v>
+        <v>20.92111952269258</v>
       </c>
     </row>
     <row r="27">
@@ -1788,7 +1788,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CONT0107</t>
+          <t>CONT0835</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>23.86401254630833</v>
+        <v>22.65278558687177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CONT0840</t>
+          <t>CONT0206</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>23.17303800574569</v>
+        <v>19.87034157183497</v>
       </c>
     </row>
     <row r="30">
@@ -1988,7 +1988,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CONT0756</t>
+          <t>CONT0391</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2032,13 +2032,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>23.54032956903697</v>
+        <v>25.70495325391274</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CONT0512</t>
+          <t>CONT1285</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>23.04416965170652</v>
+        <v>21.51699907743258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CONT0298</t>
+          <t>CONT0648</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>19.15801150819687</v>
+        <v>20.85985136384293</v>
       </c>
     </row>
     <row r="35">
@@ -4938,7 +4938,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CONT0368</t>
+          <t>CONT0045</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>26.65279924522552</v>
+        <v>27.85313067887969</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CONT0124</t>
+          <t>CONT1272</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>23.28549714979644</v>
+        <v>23.26259867334703</v>
       </c>
     </row>
     <row r="93">
@@ -5088,7 +5088,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CONT0195</t>
+          <t>CONT0551</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5132,13 +5132,13 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>18.75917712417305</v>
+        <v>20.7929063857989</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CONT1240</t>
+          <t>CONT1045</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>27.85289367357482</v>
+        <v>22.87892750151899</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CONT0334</t>
+          <t>CONT0043</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>24.02005734647031</v>
+        <v>25.67181632318134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CONT0201</t>
+          <t>CONT1164</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>21.04689226725448</v>
+        <v>22.92312807398505</v>
       </c>
     </row>
     <row r="98">
@@ -5438,7 +5438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CONT1045</t>
+          <t>CONT0497</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>22.87892750151899</v>
+        <v>25.02642088957666</v>
       </c>
     </row>
     <row r="102">
@@ -5588,7 +5588,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CONT0140</t>
+          <t>CONT0078</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>25.57481631774583</v>
+        <v>21.3870823534226</v>
       </c>
     </row>
     <row r="105">
@@ -5738,7 +5738,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CONT0114</t>
+          <t>CONT1083</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5782,13 +5782,13 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>23.19682011081988</v>
+        <v>24.69830298062632</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CONT0573</t>
+          <t>CONT0257</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>22.7994783538864</v>
+        <v>18.8229734328598</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CONT0743</t>
+          <t>CONT0234</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5882,13 +5882,13 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>19.71907716609512</v>
+        <v>20.54033358787004</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CONT0589</t>
+          <t>CONT0487</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>24.00584408152329</v>
+        <v>21.74491927579241</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CONT0295</t>
+          <t>CONT0427</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>21.47639792536277</v>
+        <v>21.21649478936889</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CONT0104</t>
+          <t>CONT0490</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>19.60388638094598</v>
+        <v>20.4970455893134</v>
       </c>
     </row>
     <row r="113">
@@ -9038,7 +9038,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CONT0222</t>
+          <t>CONT0128</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>24.4960760374589</v>
+        <v>24.70976479776643</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CONT0134</t>
+          <t>CONT0962</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9132,13 +9132,13 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>23.28702301509272</v>
+        <v>22.78857465058816</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CONT0991</t>
+          <t>CONT1131</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>20.37598547529542</v>
+        <v>19.55290432291941</v>
       </c>
     </row>
     <row r="176">
@@ -9238,7 +9238,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CONT0239</t>
+          <t>CONT0407</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9282,13 +9282,13 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>21.27547179421265</v>
+        <v>25.32710823111863</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CONT1223</t>
+          <t>CONT0173</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9332,13 +9332,13 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>21.88637383713981</v>
+        <v>22.49560444825856</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CONT0254</t>
+          <t>CONT0339</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>19.55307212712922</v>
+        <v>20.33714798270237</v>
       </c>
     </row>
     <row r="180">
@@ -9438,7 +9438,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CONT0326</t>
+          <t>CONT0583</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>25.24129584134894</v>
+        <v>24.0185370076696</v>
       </c>
     </row>
     <row r="182">
@@ -9588,7 +9588,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CONT1054</t>
+          <t>CONT0674</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9632,13 +9632,13 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>27.291535809039</v>
+        <v>27.09246269093565</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CONT0162</t>
+          <t>CONT0967</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9682,13 +9682,13 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>23.28232861349992</v>
+        <v>25.21620235808451</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CONT0392</t>
+          <t>CONT1112</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9732,13 +9732,13 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>22.11826710441573</v>
+        <v>21.3909014677361</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CONT0521</t>
+          <t>CONT0991</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9782,13 +9782,13 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>20.1301572397581</v>
+        <v>20.37598547529542</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CONT0171</t>
+          <t>CONT0274</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9832,13 +9832,13 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>25.77585694081785</v>
+        <v>27.27403853409206</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CONT0236</t>
+          <t>CONT0124</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>25.1449060116874</v>
+        <v>23.28549714979644</v>
       </c>
     </row>
     <row r="190">
@@ -9938,7 +9938,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CONT1048</t>
+          <t>CONT0806</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>18.32544851199569</v>
+        <v>18.7712354729769</v>
       </c>
     </row>
     <row r="192">
@@ -10038,7 +10038,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CONT0898</t>
+          <t>CONT0377</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>21.47470228099468</v>
+        <v>25.04790760822512</v>
       </c>
     </row>
     <row r="194">
@@ -10188,7 +10188,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CONT0860</t>
+          <t>CONT1243</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10232,13 +10232,13 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>23.1884322355795</v>
+        <v>22.53345214156302</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CONT0734</t>
+          <t>CONT0472</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>19.21315979296467</v>
+        <v>20.95727377318399</v>
       </c>
     </row>
     <row r="198">
@@ -12988,7 +12988,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CONT0386</t>
+          <t>CONT0670</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13032,13 +13032,13 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>23.75501799871316</v>
+        <v>24.83737267914435</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CONT0807</t>
+          <t>CONT0098</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>22.5096628615442</v>
+        <v>22.3015152415745</v>
       </c>
     </row>
     <row r="254">
@@ -13138,7 +13138,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CONT0738</t>
+          <t>CONT0761</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13182,13 +13182,13 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>26.37466846896668</v>
+        <v>27.21936567886197</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CONT0135</t>
+          <t>CONT0239</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13232,13 +13232,13 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>23.21656812376843</v>
+        <v>21.27547179421265</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CONT0718</t>
+          <t>CONT0860</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>22.49729354733695</v>
+        <v>23.1884322355795</v>
       </c>
     </row>
     <row r="258">
@@ -13388,7 +13388,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CONT0497</t>
+          <t>CONT0182</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -13432,13 +13432,13 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>25.02642088957666</v>
+        <v>24.95103680931975</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CONT0173</t>
+          <t>CONT0201</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -13482,13 +13482,13 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>22.49560444825856</v>
+        <v>21.04689226725448</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CONT0705</t>
+          <t>CONT0417</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -13532,13 +13532,13 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>19.77238889548734</v>
+        <v>19.35359348248094</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CONT0955</t>
+          <t>CONT0733</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -13582,13 +13582,13 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>27.18940497966873</v>
+        <v>26.42867039326525</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CONT0182</t>
+          <t>CONT0477</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -13632,13 +13632,13 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>24.95103680931975</v>
+        <v>24.95708573780069</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CONT0805</t>
+          <t>CONT0707</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -13682,13 +13682,13 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>20.92111952269258</v>
+        <v>22.48747654438291</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CONT0234</t>
+          <t>CONT0743</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -13732,7 +13732,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>20.54033358787004</v>
+        <v>19.71907716609512</v>
       </c>
     </row>
     <row r="267">
@@ -13788,7 +13788,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CONT0941</t>
+          <t>CONT0528</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>26.56272682266664</v>
+        <v>24.94516838668689</v>
       </c>
     </row>
     <row r="269">
@@ -13888,7 +13888,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CONT0257</t>
+          <t>CONT0484</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13932,13 +13932,13 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>18.8229734328598</v>
+        <v>19.70545624764264</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CONT0674</t>
+          <t>CONT0809</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13982,13 +13982,13 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>27.09246269093565</v>
+        <v>26.61712104529144</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CONT0560</t>
+          <t>CONT1094</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -14032,13 +14032,13 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>24.61243449410931</v>
+        <v>24.87258583575658</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CONT0484</t>
+          <t>CONT1175</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>19.70545624764264</v>
+        <v>22.45335937573562</v>
       </c>
     </row>
     <row r="274">
@@ -14188,7 +14188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CONT0206</t>
+          <t>CONT0170</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>19.87034157183497</v>
+        <v>24.85083227004726</v>
       </c>
     </row>
     <row r="277">
@@ -14388,7 +14388,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CONT0670</t>
+          <t>CONT0714</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -14432,13 +14432,13 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>24.83737267914435</v>
+        <v>25.03977630639699</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CONT1126</t>
+          <t>CONT1137</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>22.25251290695751</v>
+        <v>21.29266472595747</v>
       </c>
     </row>
     <row r="282">
@@ -16838,7 +16838,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>CONT0066</t>
+          <t>CONT0185</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -16882,13 +16882,13 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>24.63660828827718</v>
+        <v>27.04652231169971</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CONT1091</t>
+          <t>CONT0752</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -16932,13 +16932,13 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>23.91492415567983</v>
+        <v>24.78789071524827</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>CONT0835</t>
+          <t>CONT0647</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -16982,13 +16982,13 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>22.65278558687177</v>
+        <v>22.26166122138721</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>CONT0490</t>
+          <t>CONT0104</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -17032,13 +17032,13 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>20.4970455893134</v>
+        <v>19.60388638094598</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CONT0849</t>
+          <t>CONT1238</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -17082,13 +17082,13 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>26.50501798351545</v>
+        <v>26.98151449752866</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CONT0128</t>
+          <t>CONT1015</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -17132,13 +17132,13 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>24.70976479776643</v>
+        <v>25.52161488852274</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CONT0098</t>
+          <t>CONT1126</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -17182,13 +17182,13 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>22.3015152415745</v>
+        <v>22.25251290695751</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CONT0339</t>
+          <t>CONT0254</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -17232,13 +17232,13 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>20.33714798270237</v>
+        <v>19.55307212712922</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CONT1069</t>
+          <t>CONT0955</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -17282,13 +17282,13 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>26.77779190262444</v>
+        <v>27.18940497966873</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CONT1083</t>
+          <t>CONT0978</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -17332,13 +17332,13 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>24.69830298062632</v>
+        <v>25.52947957475616</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CONT0962</t>
+          <t>CONT0333</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -17382,13 +17382,13 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>22.78857465058816</v>
+        <v>22.12039311047565</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CONT1131</t>
+          <t>CONT0521</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -17432,13 +17432,13 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>19.55290432291941</v>
+        <v>20.1301572397581</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>CONT1136</t>
+          <t>CONT0502</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>25.92929123606821</v>
+        <v>26.71711053030541</v>
       </c>
     </row>
     <row r="342">
@@ -17538,7 +17538,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CONT1164</t>
+          <t>CONT0392</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -17582,13 +17582,13 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>22.92312807398505</v>
+        <v>22.11826710441573</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CONT0169</t>
+          <t>CONT1183</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -17632,13 +17632,13 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>19.4805243920562</v>
+        <v>18.73067536366306</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>CONT1179</t>
+          <t>CONT1212</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -17682,13 +17682,13 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>26.71473628868679</v>
+        <v>26.22128949138882</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CONT0185</t>
+          <t>CONT0066</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>27.04652231169971</v>
+        <v>24.63660828827718</v>
       </c>
     </row>
     <row r="347">
@@ -17788,7 +17788,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CONT0930</t>
+          <t>CONT0298</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -17832,13 +17832,13 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>19.47038742302419</v>
+        <v>19.15801150819687</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CONT0502</t>
+          <t>CONT1149</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -17882,13 +17882,13 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>26.71711053030541</v>
+        <v>26.71002275389305</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CONT1094</t>
+          <t>CONT0560</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17932,13 +17932,13 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>24.87258583575658</v>
+        <v>24.61243449410931</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CONT0846</t>
+          <t>CONT0171</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17982,7 +17982,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>22.0587153874771</v>
+        <v>25.77585694081785</v>
       </c>
     </row>
     <row r="352">
@@ -18038,7 +18038,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CONT0045</t>
+          <t>CONT0368</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>27.85313067887969</v>
+        <v>26.65279924522552</v>
       </c>
     </row>
     <row r="354">
@@ -18138,7 +18138,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>CONT0377</t>
+          <t>CONT1297</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>25.04790760822512</v>
+        <v>21.95252067126</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CONT0417</t>
+          <t>CONT0705</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -18232,13 +18232,13 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>19.35359348248094</v>
+        <v>19.77238889548734</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CONT0809</t>
+          <t>CONT1054</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -18282,13 +18282,13 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>26.61712104529144</v>
+        <v>27.291535809039</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CONT0967</t>
+          <t>CONT0222</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>25.21620235808451</v>
+        <v>24.4960760374589</v>
       </c>
     </row>
     <row r="359">
@@ -18388,7 +18388,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>CONT0752</t>
+          <t>CONT0734</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>24.78789071524827</v>
+        <v>19.21315979296467</v>
       </c>
     </row>
     <row r="361">
@@ -20238,7 +20238,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>CONT0528</t>
+          <t>CONT1282</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -20282,7 +20282,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>24.94516838668689</v>
+        <v>26.4953510408872</v>
       </c>
     </row>
     <row r="398">
@@ -20438,7 +20438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CONT0714</t>
+          <t>CONT0849</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -20482,13 +20482,13 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>25.03977630639699</v>
+        <v>26.50501798351545</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CONT1150</t>
+          <t>CONT0162</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -20532,13 +20532,13 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>24.32628101158234</v>
+        <v>23.28232861349992</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CONT0906</t>
+          <t>CONT0589</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -20582,13 +20582,13 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>21.89368409242365</v>
+        <v>24.00584408152329</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CONT0648</t>
+          <t>CONT0930</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -20632,13 +20632,13 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>20.85985136384293</v>
+        <v>19.47038742302419</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CONT1282</t>
+          <t>CONT0386</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -20682,13 +20682,13 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>26.4953510408872</v>
+        <v>23.75501799871316</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CONT0336</t>
+          <t>CONT0334</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -20732,13 +20732,13 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>23.74662527699107</v>
+        <v>24.02005734647031</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CONT0200</t>
+          <t>CONT1223</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>20.92693105118598</v>
+        <v>21.88637383713981</v>
       </c>
     </row>
     <row r="408">
@@ -20838,7 +20838,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CONT0733</t>
+          <t>CONT1069</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -20882,13 +20882,13 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>26.42867039326525</v>
+        <v>26.77779190262444</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CONT0583</t>
+          <t>CONT0326</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -20932,13 +20932,13 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>24.0185370076696</v>
+        <v>25.24129584134894</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CONT0018</t>
+          <t>CONT0512</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -20982,13 +20982,13 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>21.79786120722899</v>
+        <v>23.04416965170652</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CONT0987</t>
+          <t>CONT0573</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -21032,13 +21032,13 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>18.97037084355456</v>
+        <v>22.7994783538864</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CONT0274</t>
+          <t>CONT1240</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -21082,13 +21082,13 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>27.27403853409206</v>
+        <v>27.85289367357482</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CONT0547</t>
+          <t>CONT1194</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -21132,13 +21132,13 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>23.32093687690937</v>
+        <v>23.82717126450705</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CONT0874</t>
+          <t>CONT1249</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>21.34234738888928</v>
+        <v>23.21737895277316</v>
       </c>
     </row>
     <row r="416">
@@ -21238,7 +21238,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CONT1212</t>
+          <t>CONT1179</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -21282,7 +21282,7 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>26.22128949138882</v>
+        <v>26.71473628868679</v>
       </c>
     </row>
     <row r="418">
@@ -21438,7 +21438,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CONT0231</t>
+          <t>CONT0578</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -21482,13 +21482,13 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>26.20206293485691</v>
+        <v>27.96723555862209</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CONT0170</t>
+          <t>CONT0703</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -21532,13 +21532,13 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>24.85083227004726</v>
+        <v>25.5240415318084</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CONT1272</t>
+          <t>CONT0018</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -21582,13 +21582,13 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>23.26259867334703</v>
+        <v>21.79786120722899</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CONT1175</t>
+          <t>CONT0987</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -21632,7 +21632,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>22.45335937573562</v>
+        <v>18.97037084355456</v>
       </c>
     </row>
     <row r="425">
@@ -21688,7 +21688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CONT0761</t>
+          <t>CONT0107</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -21732,13 +21732,13 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>27.21936567886197</v>
+        <v>23.86401254630833</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CONT1140</t>
+          <t>CONT0295</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -21782,13 +21782,13 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>22.78961685088655</v>
+        <v>21.47639792536277</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CONT0806</t>
+          <t>CONT0099</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>18.7712354729769</v>
+        <v>19.94830831376252</v>
       </c>
     </row>
     <row r="429">
@@ -23638,7 +23638,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CONT0578</t>
+          <t>CONT0140</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -23682,13 +23682,13 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>27.96723555862209</v>
+        <v>25.57481631774583</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CONT1297</t>
+          <t>CONT0898</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -23732,13 +23732,13 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>21.95252067126</v>
+        <v>21.47470228099468</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>CONT0551</t>
+          <t>CONT0195</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -23782,13 +23782,13 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>20.7929063857989</v>
+        <v>18.75917712417305</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CONT0453</t>
+          <t>CONT0990</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -23832,13 +23832,13 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>25.80027672202497</v>
+        <v>26.14096402538129</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CONT1238</t>
+          <t>CONT0941</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -23882,7 +23882,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>26.98151449752866</v>
+        <v>26.56272682266664</v>
       </c>
     </row>
     <row r="470">
@@ -23938,7 +23938,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CONT1183</t>
+          <t>CONT0169</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -23982,7 +23982,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>18.73067536366306</v>
+        <v>19.4805243920562</v>
       </c>
     </row>
     <row r="472">
@@ -24038,7 +24038,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CONT0043</t>
+          <t>CONT1150</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -24082,7 +24082,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>25.67181632318134</v>
+        <v>24.32628101158234</v>
       </c>
     </row>
     <row r="474">
@@ -24238,7 +24238,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CONT0647</t>
+          <t>CONT0840</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>22.26166122138721</v>
+        <v>23.17303800574569</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CONT1112</t>
+          <t>CONT0236</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -24332,7 +24332,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>21.3909014677361</v>
+        <v>25.1449060116874</v>
       </c>
     </row>
     <row r="479">
@@ -24438,7 +24438,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>CONT0391</t>
+          <t>CONT0756</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -24482,13 +24482,13 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>25.70495325391274</v>
+        <v>23.54032956903697</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CONT0078</t>
+          <t>CONT1091</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -24532,7 +24532,7 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>21.3870823534226</v>
+        <v>23.91492415567983</v>
       </c>
     </row>
     <row r="483">
@@ -24588,7 +24588,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CONT0387</t>
+          <t>CONT1136</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -24632,13 +24632,13 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>25.92730786680287</v>
+        <v>25.92929123606821</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>CONT0333</t>
+          <t>CONT0547</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -24682,13 +24682,13 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>22.12039311047565</v>
+        <v>23.32093687690937</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CONT0680</t>
+          <t>CONT0874</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -24732,13 +24732,13 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>21.37816938898668</v>
+        <v>21.34234738888928</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CONT0099</t>
+          <t>CONT1048</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -24782,13 +24782,13 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>19.94830831376252</v>
+        <v>18.32544851199569</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CONT0703</t>
+          <t>CONT0134</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -24832,13 +24832,13 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>25.5240415318084</v>
+        <v>23.28702301509272</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>CONT0487</t>
+          <t>CONT0882</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -24882,7 +24882,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>21.74491927579241</v>
+        <v>23.64587780239153</v>
       </c>
     </row>
     <row r="490">
@@ -27088,7 +27088,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>CONT1149</t>
+          <t>CONT0387</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -27132,13 +27132,13 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>26.71002275389305</v>
+        <v>25.92730786680287</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CONT0504</t>
+          <t>CONT0453</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -27182,13 +27182,13 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>25.69447853980771</v>
+        <v>25.80027672202497</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>CONT1137</t>
+          <t>CONT0807</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -27232,7 +27232,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>21.29266472595747</v>
+        <v>22.5096628615442</v>
       </c>
     </row>
     <row r="537">
@@ -27288,7 +27288,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CONT1015</t>
+          <t>CONT0336</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -27332,13 +27332,13 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>25.52161488852274</v>
+        <v>23.74662527699107</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>CONT0407</t>
+          <t>CONT0906</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -27382,7 +27382,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>25.32710823111863</v>
+        <v>21.89368409242365</v>
       </c>
     </row>
     <row r="540">
@@ -27438,7 +27438,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>CONT1285</t>
+          <t>CONT0504</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -27482,13 +27482,13 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>21.51699907743258</v>
+        <v>25.69447853980771</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>CONT0707</t>
+          <t>CONT1140</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -27532,13 +27532,13 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>22.48747654438291</v>
+        <v>22.78961685088655</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>CONT0990</t>
+          <t>CONT0135</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -27582,13 +27582,13 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>26.14096402538129</v>
+        <v>23.21656812376843</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>CONT1249</t>
+          <t>CONT0738</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -27632,7 +27632,7 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>23.21737895277316</v>
+        <v>26.37466846896668</v>
       </c>
     </row>
     <row r="545">
@@ -27688,7 +27688,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>CONT0477</t>
+          <t>CONT0846</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -27732,13 +27732,13 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>24.95708573780069</v>
+        <v>22.0587153874771</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CONT0882</t>
+          <t>CONT0870</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -27782,13 +27782,13 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>23.64587780239153</v>
+        <v>22.78618963275677</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>CONT0978</t>
+          <t>CONT0114</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -27832,13 +27832,13 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>25.52947957475616</v>
+        <v>23.19682011081988</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>CONT0472</t>
+          <t>CONT0680</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -27882,13 +27882,13 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>20.95727377318399</v>
+        <v>21.37816938898668</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>CONT0870</t>
+          <t>CONT0200</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -27932,13 +27932,13 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>22.78618963275677</v>
+        <v>20.92693105118598</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>CONT0427</t>
+          <t>CONT0644</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>21.21649478936889</v>
+        <v>20.8814068150331</v>
       </c>
     </row>
     <row r="552">

--- a/export/Hasil_Stowage_Plan_Final.xlsx
+++ b/export/Hasil_Stowage_Plan_Final.xlsx
@@ -1538,7 +1538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CONT0231</t>
+          <t>CONT0909</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>26.20206293485691</v>
+        <v>26.01124804678616</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CONT0556</t>
+          <t>CONT0578</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>25.79748193626788</v>
+        <v>27.96723555862209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CONT0718</t>
+          <t>CONT0860</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>22.49729354733695</v>
+        <v>23.1884322355795</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CONT0805</t>
+          <t>CONT1048</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>20.92111952269258</v>
+        <v>18.32544851199569</v>
       </c>
     </row>
     <row r="27">
@@ -1788,7 +1788,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CONT0835</t>
+          <t>CONT0714</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>22.65278558687177</v>
+        <v>25.03977630639699</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CONT0206</t>
+          <t>CONT0840</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>19.87034157183497</v>
+        <v>23.17303800574569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CONT0966</t>
+          <t>CONT0806</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>20.87482241163825</v>
+        <v>18.7712354729769</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CONT0656</t>
+          <t>CONT0584</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>27.88047022290441</v>
+        <v>25.86154886592411</v>
       </c>
     </row>
     <row r="32">
@@ -2038,7 +2038,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CONT1285</t>
+          <t>CONT0867</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>21.51699907743258</v>
+        <v>18.39716415303731</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CONT0648</t>
+          <t>CONT1112</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>20.85985136384293</v>
+        <v>21.3909014677361</v>
       </c>
     </row>
     <row r="35">
@@ -4938,7 +4938,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CONT0045</t>
+          <t>CONT1177</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>27.85313067887969</v>
+        <v>25.63923326305014</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CONT1272</t>
+          <t>CONT0504</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>23.26259867334703</v>
+        <v>25.69447853980771</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CONT0593</t>
+          <t>CONT0262</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>23.03355801661776</v>
+        <v>21.09318734915392</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CONT0551</t>
+          <t>CONT0417</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5132,13 +5132,13 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>20.7929063857989</v>
+        <v>19.35359348248094</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CONT1045</t>
+          <t>CONT1136</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>22.87892750151899</v>
+        <v>25.92929123606821</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CONT0043</t>
+          <t>CONT0743</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>25.67181632318134</v>
+        <v>19.71907716609512</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CONT1164</t>
+          <t>CONT0528</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5282,13 +5282,13 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>22.92312807398505</v>
+        <v>24.94516838668689</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CONT0342</t>
+          <t>CONT0257</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5332,13 +5332,13 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>20.76107907228689</v>
+        <v>18.8229734328598</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CONT1292</t>
+          <t>CONT1069</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>27.72093794662745</v>
+        <v>26.77779190262444</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CONT1177</t>
+          <t>CONT1272</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5432,13 +5432,13 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>25.63923326305014</v>
+        <v>23.26259867334703</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CONT0497</t>
+          <t>CONT0342</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>25.02642088957666</v>
+        <v>20.76107907228689</v>
       </c>
     </row>
     <row r="102">
@@ -5538,7 +5538,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CONT0399</t>
+          <t>CONT1015</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>27.63525608785445</v>
+        <v>25.52161488852274</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CONT0078</t>
+          <t>CONT0846</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>21.3870823534226</v>
+        <v>22.0587153874771</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CONT1007</t>
+          <t>CONT0644</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>22.80999909840784</v>
+        <v>20.8814068150331</v>
       </c>
     </row>
     <row r="106">
@@ -5738,7 +5738,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CONT1083</t>
+          <t>CONT0978</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5782,13 +5782,13 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>24.69830298062632</v>
+        <v>25.52947957475616</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CONT0257</t>
+          <t>CONT0573</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>18.8229734328598</v>
+        <v>22.7994783538864</v>
       </c>
     </row>
     <row r="109">
@@ -5888,7 +5888,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CONT0487</t>
+          <t>CONT0703</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>21.74491927579241</v>
+        <v>25.5240415318084</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CONT0427</t>
+          <t>CONT1140</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>21.21649478936889</v>
+        <v>22.78961685088655</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CONT0490</t>
+          <t>CONT0551</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>20.4970455893134</v>
+        <v>20.7929063857989</v>
       </c>
     </row>
     <row r="113">
@@ -8988,7 +8988,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CONT0802</t>
+          <t>CONT0990</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9032,13 +9032,13 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>27.61685411432171</v>
+        <v>26.14096402538129</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CONT0128</t>
+          <t>CONT0272</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>24.70976479776643</v>
+        <v>26.14414386653202</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CONT0962</t>
+          <t>CONT0893</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9132,13 +9132,13 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>22.78857465058816</v>
+        <v>22.66267753076324</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CONT1131</t>
+          <t>CONT0991</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9182,13 +9182,13 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>19.55290432291941</v>
+        <v>20.37598547529542</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CONT0205</t>
+          <t>CONT0670</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9232,13 +9232,13 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>27.551615421421</v>
+        <v>24.83737267914435</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CONT0407</t>
+          <t>CONT0334</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9282,13 +9282,13 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>25.32710823111863</v>
+        <v>24.02005734647031</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CONT0173</t>
+          <t>CONT1007</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>22.49560444825856</v>
+        <v>22.80999909840784</v>
       </c>
     </row>
     <row r="179">
@@ -9438,7 +9438,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CONT0583</t>
+          <t>CONT0326</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9482,13 +9482,13 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>24.0185370076696</v>
+        <v>25.24129584134894</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CONT0893</t>
+          <t>CONT0477</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>22.66267753076324</v>
+        <v>24.95708573780069</v>
       </c>
     </row>
     <row r="183">
@@ -9588,7 +9588,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CONT0674</t>
+          <t>CONT1054</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>27.09246269093565</v>
+        <v>27.291535809039</v>
       </c>
     </row>
     <row r="185">
@@ -9688,7 +9688,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CONT1112</t>
+          <t>CONT0258</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9732,13 +9732,13 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>21.3909014677361</v>
+        <v>21.94157190964319</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CONT0991</t>
+          <t>CONT0521</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>20.37598547529542</v>
+        <v>20.1301572397581</v>
       </c>
     </row>
     <row r="188">
@@ -9838,7 +9838,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CONT0124</t>
+          <t>CONT0962</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>23.28549714979644</v>
+        <v>22.78857465058816</v>
       </c>
     </row>
     <row r="190">
@@ -9938,7 +9938,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CONT0806</t>
+          <t>CONT0169</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>18.7712354729769</v>
+        <v>19.4805243920562</v>
       </c>
     </row>
     <row r="192">
@@ -10038,7 +10038,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CONT0377</t>
+          <t>CONT0870</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10082,13 +10082,13 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>25.04790760822512</v>
+        <v>22.78618963275677</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CONT0474</t>
+          <t>CONT0216</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>22.60057200864657</v>
+        <v>23.93549040954863</v>
       </c>
     </row>
     <row r="195">
@@ -10238,7 +10238,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CONT0472</t>
+          <t>CONT0206</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>20.95727377318399</v>
+        <v>19.87034157183497</v>
       </c>
     </row>
     <row r="198">
@@ -12988,7 +12988,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CONT0670</t>
+          <t>CONT0078</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13032,13 +13032,13 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>24.83737267914435</v>
+        <v>21.3870823534226</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CONT0098</t>
+          <t>CONT1137</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>22.3015152415745</v>
+        <v>21.29266472595747</v>
       </c>
     </row>
     <row r="254">
@@ -13188,7 +13188,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CONT0239</t>
+          <t>CONT0497</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13232,13 +13232,13 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>21.27547179421265</v>
+        <v>25.02642088957666</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CONT0860</t>
+          <t>CONT0807</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>23.1884322355795</v>
+        <v>22.5096628615442</v>
       </c>
     </row>
     <row r="258">
@@ -13338,7 +13338,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CONT0223</t>
+          <t>CONT0320</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -13382,13 +13382,13 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>27.20876012030227</v>
+        <v>27.16397308563481</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CONT0182</t>
+          <t>CONT0236</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -13432,13 +13432,13 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>24.95103680931975</v>
+        <v>25.1449060116874</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CONT0201</t>
+          <t>CONT0173</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -13482,13 +13482,13 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>21.04689226725448</v>
+        <v>22.49560444825856</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CONT0417</t>
+          <t>CONT0705</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -13532,13 +13532,13 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>19.35359348248094</v>
+        <v>19.77238889548734</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CONT0733</t>
+          <t>CONT0955</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -13582,13 +13582,13 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>26.42867039326525</v>
+        <v>27.18940497966873</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CONT0477</t>
+          <t>CONT0182</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -13632,13 +13632,13 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>24.95708573780069</v>
+        <v>24.95103680931975</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CONT0707</t>
+          <t>CONT0487</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -13682,13 +13682,13 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>22.48747654438291</v>
+        <v>21.74491927579241</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CONT0743</t>
+          <t>CONT0018</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -13732,13 +13732,13 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>19.71907716609512</v>
+        <v>21.79786120722899</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CONT0320</t>
+          <t>CONT0223</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -13782,13 +13782,13 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>27.16397308563481</v>
+        <v>27.20876012030227</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CONT0528</t>
+          <t>CONT1164</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>24.94516838668689</v>
+        <v>22.92312807398505</v>
       </c>
     </row>
     <row r="269">
@@ -13888,7 +13888,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CONT0484</t>
+          <t>CONT0298</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13932,13 +13932,13 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>19.70545624764264</v>
+        <v>19.15801150819687</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CONT0809</t>
+          <t>CONT1282</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>26.61712104529144</v>
+        <v>26.4953510408872</v>
       </c>
     </row>
     <row r="272">
@@ -14238,7 +14238,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CONT1078</t>
+          <t>CONT0930</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>22.36594564031953</v>
+        <v>19.47038742302419</v>
       </c>
     </row>
     <row r="278">
@@ -14388,7 +14388,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CONT0714</t>
+          <t>CONT0205</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -14432,13 +14432,13 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>25.03977630639699</v>
+        <v>27.551615421421</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CONT1137</t>
+          <t>CONT0098</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -14482,13 +14482,13 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>21.29266472595747</v>
+        <v>22.3015152415745</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CONT1253</t>
+          <t>CONT0379</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>19.64858026261778</v>
+        <v>18.65619499115815</v>
       </c>
     </row>
     <row r="283">
@@ -16938,7 +16938,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>CONT0647</t>
+          <t>CONT0906</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>22.26166122138721</v>
+        <v>21.89368409242365</v>
       </c>
     </row>
     <row r="332">
@@ -17088,7 +17088,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CONT1015</t>
+          <t>CONT0128</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>25.52161488852274</v>
+        <v>24.70976479776643</v>
       </c>
     </row>
     <row r="335">
@@ -17238,7 +17238,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CONT0955</t>
+          <t>CONT0453</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -17282,13 +17282,13 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>27.18940497966873</v>
+        <v>25.80027672202497</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CONT0978</t>
+          <t>CONT1083</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -17332,7 +17332,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>25.52947957475616</v>
+        <v>24.69830298062632</v>
       </c>
     </row>
     <row r="339">
@@ -17388,7 +17388,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CONT0521</t>
+          <t>CONT1131</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -17432,7 +17432,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>20.1301572397581</v>
+        <v>19.55290432291941</v>
       </c>
     </row>
     <row r="341">
@@ -17488,7 +17488,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>CONT0922</t>
+          <t>CONT0805</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>24.69516180911299</v>
+        <v>20.92111952269258</v>
       </c>
     </row>
     <row r="343">
@@ -17588,7 +17588,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CONT1183</t>
+          <t>CONT0099</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -17632,13 +17632,13 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>18.73067536366306</v>
+        <v>19.94830831376252</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>CONT1212</t>
+          <t>CONT1179</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>26.22128949138882</v>
+        <v>26.71473628868679</v>
       </c>
     </row>
     <row r="346">
@@ -17788,7 +17788,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CONT0298</t>
+          <t>CONT0427</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -17832,13 +17832,13 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>19.15801150819687</v>
+        <v>21.21649478936889</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CONT1149</t>
+          <t>CONT0522</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -17882,7 +17882,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>26.71002275389305</v>
+        <v>25.83828182406255</v>
       </c>
     </row>
     <row r="350">
@@ -17938,7 +17938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CONT0171</t>
+          <t>CONT0117</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17982,7 +17982,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>25.77585694081785</v>
+        <v>24.54334002711886</v>
       </c>
     </row>
     <row r="352">
@@ -18038,7 +18038,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CONT0368</t>
+          <t>CONT1150</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -18082,13 +18082,13 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>26.65279924522552</v>
+        <v>24.32628101158234</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>CONT0117</t>
+          <t>CONT0835</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -18132,7 +18132,7 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>24.54334002711886</v>
+        <v>22.65278558687177</v>
       </c>
     </row>
     <row r="355">
@@ -18188,7 +18188,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CONT0705</t>
+          <t>CONT0490</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -18232,13 +18232,13 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>19.77238889548734</v>
+        <v>20.4970455893134</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CONT1054</t>
+          <t>CONT0809</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -18282,13 +18282,13 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>27.291535809039</v>
+        <v>26.61712104529144</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CONT0222</t>
+          <t>CONT0718</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -18332,13 +18332,13 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>24.4960760374589</v>
+        <v>22.49729354733695</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>CONT0258</t>
+          <t>CONT1223</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>21.94157190964319</v>
+        <v>21.88637383713981</v>
       </c>
     </row>
     <row r="360">
@@ -20238,7 +20238,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>CONT1282</t>
+          <t>CONT0941</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -20282,7 +20282,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>26.4953510408872</v>
+        <v>26.56272682266664</v>
       </c>
     </row>
     <row r="398">
@@ -20488,7 +20488,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CONT0162</t>
+          <t>CONT0656</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -20532,13 +20532,13 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>23.28232861349992</v>
+        <v>27.88047022290441</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CONT0589</t>
+          <t>CONT0647</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -20582,13 +20582,13 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>24.00584408152329</v>
+        <v>22.26166122138721</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CONT0930</t>
+          <t>CONT0484</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -20632,13 +20632,13 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>19.47038742302419</v>
+        <v>19.70545624764264</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CONT0386</t>
+          <t>CONT0674</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -20682,13 +20682,13 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>23.75501799871316</v>
+        <v>27.09246269093565</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CONT0334</t>
+          <t>CONT0407</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -20732,13 +20732,13 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>24.02005734647031</v>
+        <v>25.32710823111863</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CONT1223</t>
+          <t>CONT0140</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>21.88637383713981</v>
+        <v>25.57481631774583</v>
       </c>
     </row>
     <row r="408">
@@ -20838,7 +20838,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CONT1069</t>
+          <t>CONT0733</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -20882,13 +20882,13 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>26.77779190262444</v>
+        <v>26.42867039326525</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CONT0326</t>
+          <t>CONT0583</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -20932,13 +20932,13 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>25.24129584134894</v>
+        <v>24.0185370076696</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CONT0512</t>
+          <t>CONT1078</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -20982,13 +20982,13 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>23.04416965170652</v>
+        <v>22.36594564031953</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CONT0573</t>
+          <t>CONT0987</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -21032,13 +21032,13 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>22.7994783538864</v>
+        <v>18.97037084355456</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CONT1240</t>
+          <t>CONT0738</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -21082,13 +21082,13 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>27.85289367357482</v>
+        <v>26.37466846896668</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CONT1194</t>
+          <t>CONT0589</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -21132,13 +21132,13 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>23.82717126450705</v>
+        <v>24.00584408152329</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CONT1249</t>
+          <t>CONT0707</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>23.21737895277316</v>
+        <v>22.48747654438291</v>
       </c>
     </row>
     <row r="416">
@@ -21238,7 +21238,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CONT1179</t>
+          <t>CONT1149</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -21282,13 +21282,13 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>26.71473628868679</v>
+        <v>26.71002275389305</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CONT0216</t>
+          <t>CONT0512</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -21332,7 +21332,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>23.93549040954863</v>
+        <v>23.04416965170652</v>
       </c>
     </row>
     <row r="419">
@@ -21438,7 +21438,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CONT0578</t>
+          <t>CONT0231</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -21482,13 +21482,13 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>27.96723555862209</v>
+        <v>26.20206293485691</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CONT0703</t>
+          <t>CONT1091</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -21532,13 +21532,13 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>25.5240415318084</v>
+        <v>23.91492415567983</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CONT0018</t>
+          <t>CONT1285</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -21582,13 +21582,13 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>21.79786120722899</v>
+        <v>21.51699907743258</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CONT0987</t>
+          <t>CONT1045</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -21632,7 +21632,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>18.97037084355456</v>
+        <v>22.87892750151899</v>
       </c>
     </row>
     <row r="425">
@@ -21688,7 +21688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CONT0107</t>
+          <t>CONT0386</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>23.86401254630833</v>
+        <v>23.75501799871316</v>
       </c>
     </row>
     <row r="427">
@@ -21788,7 +21788,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CONT0099</t>
+          <t>CONT0966</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>19.94830831376252</v>
+        <v>20.87482241163825</v>
       </c>
     </row>
     <row r="429">
@@ -23588,7 +23588,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CONT0272</t>
+          <t>CONT0399</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -23632,13 +23632,13 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>26.14414386653202</v>
+        <v>27.63525608785445</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CONT0140</t>
+          <t>CONT1194</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -23682,7 +23682,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>25.57481631774583</v>
+        <v>23.82717126450705</v>
       </c>
     </row>
     <row r="466">
@@ -23788,7 +23788,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CONT0990</t>
+          <t>CONT0802</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -23832,13 +23832,13 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>26.14096402538129</v>
+        <v>27.61685411432171</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CONT0941</t>
+          <t>CONT0107</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -23882,7 +23882,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>26.56272682266664</v>
+        <v>23.86401254630833</v>
       </c>
     </row>
     <row r="470">
@@ -23938,7 +23938,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CONT0169</t>
+          <t>CONT1183</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -23982,7 +23982,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>19.4805243920562</v>
+        <v>18.73067536366306</v>
       </c>
     </row>
     <row r="472">
@@ -24038,7 +24038,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CONT1150</t>
+          <t>CONT0336</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -24082,7 +24082,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>24.32628101158234</v>
+        <v>23.74662527699107</v>
       </c>
     </row>
     <row r="474">
@@ -24138,7 +24138,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CONT0379</t>
+          <t>CONT1253</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -24182,13 +24182,13 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>18.65619499115815</v>
+        <v>19.64858026261778</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CONT0909</t>
+          <t>CONT1212</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -24232,13 +24232,13 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>26.01124804678616</v>
+        <v>26.22128949138882</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CONT0840</t>
+          <t>CONT0882</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>23.17303800574569</v>
+        <v>23.64587780239153</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CONT0236</t>
+          <t>CONT0874</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -24332,7 +24332,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>25.1449060116874</v>
+        <v>21.34234738888928</v>
       </c>
     </row>
     <row r="479">
@@ -24488,7 +24488,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CONT1091</t>
+          <t>CONT0043</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -24532,13 +24532,13 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>23.91492415567983</v>
+        <v>25.67181632318134</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CONT0867</t>
+          <t>CONT0474</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -24582,13 +24582,13 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>18.39716415303731</v>
+        <v>22.60057200864657</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CONT1136</t>
+          <t>CONT0045</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -24632,7 +24632,7 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>25.92929123606821</v>
+        <v>27.85313067887969</v>
       </c>
     </row>
     <row r="485">
@@ -24688,7 +24688,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CONT0874</t>
+          <t>CONT0680</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -24732,13 +24732,13 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>21.34234738888928</v>
+        <v>21.37816938898668</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CONT1048</t>
+          <t>CONT0201</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -24782,7 +24782,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>18.32544851199569</v>
+        <v>21.04689226725448</v>
       </c>
     </row>
     <row r="488">
@@ -24838,7 +24838,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>CONT0882</t>
+          <t>CONT0648</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -24882,7 +24882,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>23.64587780239153</v>
+        <v>20.85985136384293</v>
       </c>
     </row>
     <row r="490">
@@ -27088,7 +27088,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>CONT0387</t>
+          <t>CONT1240</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -27132,13 +27132,13 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>25.92730786680287</v>
+        <v>27.85289367357482</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CONT0453</t>
+          <t>CONT0124</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -27182,13 +27182,13 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>25.80027672202497</v>
+        <v>23.28549714979644</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>CONT0807</t>
+          <t>CONT0222</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -27232,13 +27232,13 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>22.5096628615442</v>
+        <v>24.4960760374589</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>CONT0584</t>
+          <t>CONT0368</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -27282,13 +27282,13 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>25.86154886592411</v>
+        <v>26.65279924522552</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CONT0336</t>
+          <t>CONT0162</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -27332,13 +27332,13 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>23.74662527699107</v>
+        <v>23.28232861349992</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>CONT0906</t>
+          <t>CONT0239</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -27382,13 +27382,13 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>21.89368409242365</v>
+        <v>21.27547179421265</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>CONT0522</t>
+          <t>CONT0556</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -27432,13 +27432,13 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>25.83828182406255</v>
+        <v>25.79748193626788</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>CONT0504</t>
+          <t>CONT0387</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -27482,13 +27482,13 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>25.69447853980771</v>
+        <v>25.92730786680287</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>CONT1140</t>
+          <t>CONT0171</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -27532,13 +27532,13 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>22.78961685088655</v>
+        <v>25.77585694081785</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>CONT0135</t>
+          <t>CONT1292</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -27582,13 +27582,13 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>23.21656812376843</v>
+        <v>27.72093794662745</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>CONT0738</t>
+          <t>CONT1249</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -27632,13 +27632,13 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>26.37466846896668</v>
+        <v>23.21737895277316</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>CONT0262</t>
+          <t>CONT0593</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -27682,13 +27682,13 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>21.09318734915392</v>
+        <v>23.03355801661776</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>CONT0846</t>
+          <t>CONT0135</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -27732,13 +27732,13 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>22.0587153874771</v>
+        <v>23.21656812376843</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CONT0870</t>
+          <t>CONT0200</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -27782,7 +27782,7 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>22.78618963275677</v>
+        <v>20.92693105118598</v>
       </c>
     </row>
     <row r="548">
@@ -27838,7 +27838,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>CONT0680</t>
+          <t>CONT0472</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -27882,13 +27882,13 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>21.37816938898668</v>
+        <v>20.95727377318399</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>CONT0200</t>
+          <t>CONT0377</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -27932,13 +27932,13 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>20.92693105118598</v>
+        <v>25.04790760822512</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>CONT0644</t>
+          <t>CONT0922</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>20.8814068150331</v>
+        <v>24.69516180911299</v>
       </c>
     </row>
     <row r="552">

--- a/export/Hasil_Stowage_Plan_Final.xlsx
+++ b/export/Hasil_Stowage_Plan_Final.xlsx
@@ -1538,7 +1538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CONT0909</t>
+          <t>CONT0578</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>26.01124804678616</v>
+        <v>27.96723555862209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CONT0578</t>
+          <t>CONT0882</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>27.96723555862209</v>
+        <v>23.64587780239153</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CONT0860</t>
+          <t>CONT0018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>23.1884322355795</v>
+        <v>21.79786120722899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CONT1048</t>
+          <t>CONT0644</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>18.32544851199569</v>
+        <v>20.8814068150331</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CONT0179</t>
+          <t>CONT0718</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>27.92436410899478</v>
+        <v>22.49729354733695</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CONT0714</t>
+          <t>CONT0171</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>25.03977630639699</v>
+        <v>25.77585694081785</v>
       </c>
     </row>
     <row r="29">
@@ -1888,7 +1888,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CONT0806</t>
+          <t>CONT0208</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>18.7712354729769</v>
+        <v>19.02960731330928</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CONT0584</t>
+          <t>CONT0656</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>25.86154886592411</v>
+        <v>27.88047022290441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CONT0391</t>
+          <t>CONT0334</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2032,13 +2032,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>25.70495325391274</v>
+        <v>24.02005734647031</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CONT0867</t>
+          <t>CONT0512</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>18.39716415303731</v>
+        <v>23.04416965170652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CONT1112</t>
+          <t>CONT1048</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>21.3909014677361</v>
+        <v>18.32544851199569</v>
       </c>
     </row>
     <row r="35">
@@ -4938,7 +4938,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CONT1177</t>
+          <t>CONT0941</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>25.63923326305014</v>
+        <v>26.56272682266664</v>
       </c>
     </row>
     <row r="92">
@@ -5038,7 +5038,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CONT0262</t>
+          <t>CONT0593</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>21.09318734915392</v>
+        <v>23.03355801661776</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CONT0417</t>
+          <t>CONT0551</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5132,13 +5132,13 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>19.35359348248094</v>
+        <v>20.7929063857989</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CONT1136</t>
+          <t>CONT1240</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>25.92929123606821</v>
+        <v>27.85289367357482</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CONT0743</t>
+          <t>CONT0043</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>19.71907716609512</v>
+        <v>25.67181632318134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CONT0528</t>
+          <t>CONT1164</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5282,13 +5282,13 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>24.94516838668689</v>
+        <v>22.92312807398505</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CONT0257</t>
+          <t>CONT0206</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5332,13 +5332,13 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>18.8229734328598</v>
+        <v>19.87034157183497</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CONT1069</t>
+          <t>CONT0733</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>26.77779190262444</v>
+        <v>26.42867039326525</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CONT1272</t>
+          <t>CONT0386</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5432,13 +5432,13 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>23.26259867334703</v>
+        <v>23.75501799871316</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CONT0342</t>
+          <t>CONT1045</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5482,13 +5482,13 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>20.76107907228689</v>
+        <v>22.87892750151899</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CONT0810</t>
+          <t>CONT0806</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>20.67646326863932</v>
+        <v>18.7712354729769</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CONT1015</t>
+          <t>CONT0399</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>25.52161488852274</v>
+        <v>27.63525608785445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CONT0846</t>
+          <t>CONT0583</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>22.0587153874771</v>
+        <v>24.0185370076696</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CONT0644</t>
+          <t>CONT0200</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>20.8814068150331</v>
+        <v>20.92693105118598</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CONT0706</t>
+          <t>CONT0201</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>20.549122251568</v>
+        <v>21.04689226725448</v>
       </c>
     </row>
     <row r="107">
@@ -5788,7 +5788,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CONT0573</t>
+          <t>CONT0234</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>22.7994783538864</v>
+        <v>20.54033358787004</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CONT0234</t>
+          <t>CONT0871</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5882,13 +5882,13 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>20.54033358787004</v>
+        <v>19.82000522933492</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CONT0703</t>
+          <t>CONT0427</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>25.5240415318084</v>
+        <v>21.21649478936889</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CONT1140</t>
+          <t>CONT0817</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>22.78961685088655</v>
+        <v>22.47483018062524</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CONT0551</t>
+          <t>CONT0490</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>20.7929063857989</v>
+        <v>20.4970455893134</v>
       </c>
     </row>
     <row r="113">
@@ -8988,7 +8988,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CONT0990</t>
+          <t>CONT0044</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9032,13 +9032,13 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>26.14096402538129</v>
+        <v>25.98667020776673</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CONT0272</t>
+          <t>CONT1015</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>26.14414386653202</v>
+        <v>25.52161488852274</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CONT0893</t>
+          <t>CONT0962</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>22.66267753076324</v>
+        <v>22.78857465058816</v>
       </c>
     </row>
     <row r="175">
@@ -9188,7 +9188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CONT0670</t>
+          <t>CONT0222</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9232,13 +9232,13 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>24.83737267914435</v>
+        <v>24.4960760374589</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CONT0334</t>
+          <t>CONT0407</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9282,13 +9282,13 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>24.02005734647031</v>
+        <v>25.32710823111863</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CONT1007</t>
+          <t>CONT0870</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>22.80999909840784</v>
+        <v>22.78618963275677</v>
       </c>
     </row>
     <row r="179">
@@ -9438,7 +9438,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CONT0326</t>
+          <t>CONT1177</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9482,13 +9482,13 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>25.24129584134894</v>
+        <v>25.63923326305014</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CONT0477</t>
+          <t>CONT0893</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>24.95708573780069</v>
+        <v>22.66267753076324</v>
       </c>
     </row>
     <row r="183">
@@ -9688,7 +9688,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CONT0258</t>
+          <t>CONT0835</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>21.94157190964319</v>
+        <v>22.65278558687177</v>
       </c>
     </row>
     <row r="187">
@@ -9838,7 +9838,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CONT0962</t>
+          <t>CONT0805</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>22.78857465058816</v>
+        <v>20.92111952269258</v>
       </c>
     </row>
     <row r="190">
@@ -9938,7 +9938,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CONT0169</t>
+          <t>CONT0099</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>19.4805243920562</v>
+        <v>19.94830831376252</v>
       </c>
     </row>
     <row r="192">
@@ -10038,7 +10038,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CONT0870</t>
+          <t>CONT0162</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10082,13 +10082,13 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>22.78618963275677</v>
+        <v>23.28232861349992</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CONT0216</t>
+          <t>CONT0474</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>23.93549040954863</v>
+        <v>22.60057200864657</v>
       </c>
     </row>
     <row r="195">
@@ -10238,7 +10238,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CONT0206</t>
+          <t>CONT0342</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>19.87034157183497</v>
+        <v>20.76107907228689</v>
       </c>
     </row>
     <row r="198">
@@ -12988,7 +12988,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CONT0078</t>
+          <t>CONT0714</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13032,13 +13032,13 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>21.3870823534226</v>
+        <v>25.03977630639699</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CONT1137</t>
+          <t>CONT0807</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13082,13 +13082,13 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>21.29266472595747</v>
+        <v>22.5096628615442</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CONT0871</t>
+          <t>CONT0795</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>19.82000522933492</v>
+        <v>18.52816944526634</v>
       </c>
     </row>
     <row r="255">
@@ -13238,7 +13238,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CONT0807</t>
+          <t>CONT1140</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>22.5096628615442</v>
+        <v>22.78961685088655</v>
       </c>
     </row>
     <row r="258">
@@ -13338,7 +13338,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CONT0320</t>
+          <t>CONT0223</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -13382,13 +13382,13 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>27.16397308563481</v>
+        <v>27.20876012030227</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CONT0236</t>
+          <t>CONT0477</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -13432,13 +13432,13 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>25.1449060116874</v>
+        <v>24.95708573780069</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CONT0173</t>
+          <t>CONT0906</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>22.49560444825856</v>
+        <v>21.89368409242365</v>
       </c>
     </row>
     <row r="262">
@@ -13638,7 +13638,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CONT0487</t>
+          <t>CONT0707</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -13682,13 +13682,13 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>21.74491927579241</v>
+        <v>22.48747654438291</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CONT0018</t>
+          <t>CONT0743</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -13732,13 +13732,13 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>21.79786120722899</v>
+        <v>19.71907716609512</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CONT0223</t>
+          <t>CONT0320</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -13782,13 +13782,13 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>27.20876012030227</v>
+        <v>27.16397308563481</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CONT1164</t>
+          <t>CONT0528</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -13832,13 +13832,13 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>22.92312807398505</v>
+        <v>24.94516838668689</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CONT0817</t>
+          <t>CONT0368</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -13882,13 +13882,13 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>22.47483018062524</v>
+        <v>26.65279924522552</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CONT0298</t>
+          <t>CONT0114</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13932,13 +13932,13 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>19.15801150819687</v>
+        <v>23.19682011081988</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CONT1282</t>
+          <t>CONT0674</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>26.4953510408872</v>
+        <v>27.09246269093565</v>
       </c>
     </row>
     <row r="272">
@@ -14238,7 +14238,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CONT0930</t>
+          <t>CONT0900</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>19.47038742302419</v>
+        <v>22.07659011675664</v>
       </c>
     </row>
     <row r="278">
@@ -14388,7 +14388,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CONT0205</t>
+          <t>CONT0670</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>27.551615421421</v>
+        <v>24.83737267914435</v>
       </c>
     </row>
     <row r="281">
@@ -14488,7 +14488,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CONT0379</t>
+          <t>CONT1253</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>18.65619499115815</v>
+        <v>19.64858026261778</v>
       </c>
     </row>
     <row r="283">
@@ -16938,7 +16938,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>CONT0906</t>
+          <t>CONT0647</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -16982,13 +16982,13 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>21.89368409242365</v>
+        <v>22.26166122138721</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>CONT0104</t>
+          <t>CONT0484</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>19.60388638094598</v>
+        <v>19.70545624764264</v>
       </c>
     </row>
     <row r="333">
@@ -17138,7 +17138,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CONT1126</t>
+          <t>CONT0703</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>22.25251290695751</v>
+        <v>25.5240415318084</v>
       </c>
     </row>
     <row r="336">
@@ -17238,7 +17238,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CONT0453</t>
+          <t>CONT1150</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -17282,13 +17282,13 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>25.80027672202497</v>
+        <v>24.32628101158234</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CONT1083</t>
+          <t>CONT1115</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -17332,7 +17332,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>24.69830298062632</v>
+        <v>24.39283173393456</v>
       </c>
     </row>
     <row r="339">
@@ -17488,7 +17488,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>CONT0805</t>
+          <t>CONT0922</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -17532,13 +17532,13 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>20.92111952269258</v>
+        <v>24.69516180911299</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CONT0392</t>
+          <t>CONT0078</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -17582,13 +17582,13 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>22.11826710441573</v>
+        <v>21.3870823534226</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CONT0099</t>
+          <t>CONT1056</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>19.94830831376252</v>
+        <v>18.88794889846302</v>
       </c>
     </row>
     <row r="345">
@@ -17688,7 +17688,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CONT0066</t>
+          <t>CONT0272</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -17732,13 +17732,13 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>24.63660828827718</v>
+        <v>26.14414386653202</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CONT0900</t>
+          <t>CONT1078</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -17782,13 +17782,13 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>22.07659011675664</v>
+        <v>22.36594564031953</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CONT0427</t>
+          <t>CONT0930</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -17832,13 +17832,13 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>21.21649478936889</v>
+        <v>19.47038742302419</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CONT0522</t>
+          <t>CONT1149</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -17882,13 +17882,13 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>25.83828182406255</v>
+        <v>26.71002275389305</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CONT0560</t>
+          <t>CONT0216</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17932,13 +17932,13 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>24.61243449410931</v>
+        <v>23.93549040954863</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CONT0117</t>
+          <t>CONT0846</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17982,7 +17982,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>24.54334002711886</v>
+        <v>22.0587153874771</v>
       </c>
     </row>
     <row r="352">
@@ -18038,7 +18038,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CONT1150</t>
+          <t>CONT0738</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -18082,13 +18082,13 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>24.32628101158234</v>
+        <v>26.37466846896668</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>CONT0835</t>
+          <t>CONT0547</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -18132,13 +18132,13 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>22.65278558687177</v>
+        <v>23.32093687690937</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>CONT1297</t>
+          <t>CONT0706</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>21.95252067126</v>
+        <v>20.549122251568</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CONT0490</t>
+          <t>CONT0417</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>20.4970455893134</v>
+        <v>19.35359348248094</v>
       </c>
     </row>
     <row r="357">
@@ -18288,7 +18288,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CONT0718</t>
+          <t>CONT0104</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -18332,13 +18332,13 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>22.49729354733695</v>
+        <v>19.60388638094598</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>CONT1223</t>
+          <t>CONT0258</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>21.88637383713981</v>
+        <v>21.94157190964319</v>
       </c>
     </row>
     <row r="360">
@@ -20238,7 +20238,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>CONT0941</t>
+          <t>CONT0045</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -20282,13 +20282,13 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>26.56272682266664</v>
+        <v>27.85313067887969</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>CONT1115</t>
+          <t>CONT1083</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -20332,13 +20332,13 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>24.39283173393456</v>
+        <v>24.69830298062632</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CONT1189</t>
+          <t>CONT0173</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>21.91503499647622</v>
+        <v>22.49560444825856</v>
       </c>
     </row>
     <row r="400">
@@ -20488,7 +20488,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CONT0656</t>
+          <t>CONT1285</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -20532,13 +20532,13 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>27.88047022290441</v>
+        <v>21.51699907743258</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CONT0647</t>
+          <t>CONT0824</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -20582,13 +20582,13 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>22.26166122138721</v>
+        <v>21.46176003573066</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CONT0484</t>
+          <t>CONT0298</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -20632,13 +20632,13 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>19.70545624764264</v>
+        <v>19.15801150819687</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CONT0674</t>
+          <t>CONT1282</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -20682,13 +20682,13 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>27.09246269093565</v>
+        <v>26.4953510408872</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CONT0407</t>
+          <t>CONT0391</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -20732,13 +20732,13 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>25.32710823111863</v>
+        <v>25.70495325391274</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CONT0140</t>
+          <t>CONT1223</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -20782,13 +20782,13 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>25.57481631774583</v>
+        <v>21.88637383713981</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CONT0208</t>
+          <t>CONT0966</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -20832,13 +20832,13 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>19.02960731330928</v>
+        <v>20.87482241163825</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CONT0733</t>
+          <t>CONT1292</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -20882,13 +20882,13 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>26.42867039326525</v>
+        <v>27.72093794662745</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CONT0583</t>
+          <t>CONT1272</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -20932,13 +20932,13 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>24.0185370076696</v>
+        <v>23.26259867334703</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CONT1078</t>
+          <t>CONT0860</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>22.36594564031953</v>
+        <v>23.1884322355795</v>
       </c>
     </row>
     <row r="412">
@@ -21038,7 +21038,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CONT0738</t>
+          <t>CONT0387</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -21082,7 +21082,7 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>26.37466846896668</v>
+        <v>25.92730786680287</v>
       </c>
     </row>
     <row r="414">
@@ -21138,7 +21138,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CONT0707</t>
+          <t>CONT0487</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>22.48747654438291</v>
+        <v>21.74491927579241</v>
       </c>
     </row>
     <row r="416">
@@ -21238,7 +21238,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CONT1149</t>
+          <t>CONT1212</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -21282,13 +21282,13 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>26.71002275389305</v>
+        <v>26.22128949138882</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CONT0512</t>
+          <t>CONT0560</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -21332,7 +21332,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>23.04416965170652</v>
+        <v>24.61243449410931</v>
       </c>
     </row>
     <row r="419">
@@ -21388,7 +21388,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CONT1056</t>
+          <t>CONT1297</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>18.88794889846302</v>
+        <v>21.95252067126</v>
       </c>
     </row>
     <row r="421">
@@ -21538,7 +21538,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CONT1285</t>
+          <t>CONT1069</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -21582,13 +21582,13 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>21.51699907743258</v>
+        <v>26.77779190262444</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CONT1045</t>
+          <t>CONT0257</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -21632,7 +21632,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>22.87892750151899</v>
+        <v>18.8229734328598</v>
       </c>
     </row>
     <row r="425">
@@ -21688,7 +21688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CONT0386</t>
+          <t>CONT0336</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>23.75501799871316</v>
+        <v>23.74662527699107</v>
       </c>
     </row>
     <row r="427">
@@ -21788,7 +21788,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CONT0966</t>
+          <t>CONT0810</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>20.87482241163825</v>
+        <v>20.67646326863932</v>
       </c>
     </row>
     <row r="429">
@@ -23588,7 +23588,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CONT0399</t>
+          <t>CONT0205</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>27.63525608785445</v>
+        <v>27.551615421421</v>
       </c>
     </row>
     <row r="465">
@@ -23788,7 +23788,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CONT0802</t>
+          <t>CONT0990</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -23832,13 +23832,13 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>27.61685411432171</v>
+        <v>26.14096402538129</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CONT0107</t>
+          <t>CONT0392</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -23882,7 +23882,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>23.86401254630833</v>
+        <v>22.11826710441573</v>
       </c>
     </row>
     <row r="470">
@@ -24038,7 +24038,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CONT0336</t>
+          <t>CONT0107</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -24082,13 +24082,13 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>23.74662527699107</v>
+        <v>23.86401254630833</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CONT0824</t>
+          <t>CONT1189</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -24132,13 +24132,13 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>21.46176003573066</v>
+        <v>21.91503499647622</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CONT1253</t>
+          <t>CONT0379</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -24182,13 +24182,13 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>19.64858026261778</v>
+        <v>18.65619499115815</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CONT1212</t>
+          <t>CONT0909</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -24232,13 +24232,13 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>26.22128949138882</v>
+        <v>26.01124804678616</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CONT0882</t>
+          <t>CONT0556</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>23.64587780239153</v>
+        <v>25.79748193626788</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CONT0874</t>
+          <t>CONT1112</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -24332,13 +24332,13 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>21.34234738888928</v>
+        <v>21.3909014677361</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CONT0795</t>
+          <t>CONT1126</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -24382,13 +24382,13 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>18.52816944526634</v>
+        <v>22.25251290695751</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>CONT0044</t>
+          <t>CONT0802</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -24432,13 +24432,13 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>25.98667020776673</v>
+        <v>27.61685411432171</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>CONT0756</t>
+          <t>CONT0124</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -24482,13 +24482,13 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>23.54032956903697</v>
+        <v>23.28549714979644</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CONT0043</t>
+          <t>CONT0326</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -24532,13 +24532,13 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>25.67181632318134</v>
+        <v>25.24129584134894</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CONT0474</t>
+          <t>CONT0867</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -24582,13 +24582,13 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>22.60057200864657</v>
+        <v>18.39716415303731</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CONT0045</t>
+          <t>CONT1136</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -24632,13 +24632,13 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>27.85313067887969</v>
+        <v>25.92929123606821</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>CONT0547</t>
+          <t>CONT0117</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -24682,7 +24682,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>23.32093687690937</v>
+        <v>24.54334002711886</v>
       </c>
     </row>
     <row r="486">
@@ -24738,7 +24738,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CONT0201</t>
+          <t>CONT0648</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -24782,13 +24782,13 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>21.04689226725448</v>
+        <v>20.85985136384293</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CONT0134</t>
+          <t>CONT0135</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -24832,13 +24832,13 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>23.28702301509272</v>
+        <v>23.21656812376843</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>CONT0648</t>
+          <t>CONT0874</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -24882,7 +24882,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>20.85985136384293</v>
+        <v>21.34234738888928</v>
       </c>
     </row>
     <row r="490">
@@ -27088,7 +27088,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>CONT1240</t>
+          <t>CONT0179</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -27132,13 +27132,13 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>27.85289367357482</v>
+        <v>27.92436410899478</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CONT0124</t>
+          <t>CONT0756</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -27182,13 +27182,13 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>23.28549714979644</v>
+        <v>23.54032956903697</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>CONT0222</t>
+          <t>CONT1137</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -27232,13 +27232,13 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>24.4960760374589</v>
+        <v>21.29266472595747</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>CONT0368</t>
+          <t>CONT0584</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -27282,13 +27282,13 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>26.65279924522552</v>
+        <v>25.86154886592411</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CONT0162</t>
+          <t>CONT0377</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -27332,7 +27332,7 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>23.28232861349992</v>
+        <v>25.04790760822512</v>
       </c>
     </row>
     <row r="539">
@@ -27388,7 +27388,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>CONT0556</t>
+          <t>CONT0522</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -27432,13 +27432,13 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>25.79748193626788</v>
+        <v>25.83828182406255</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>CONT0387</t>
+          <t>CONT0140</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -27482,13 +27482,13 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>25.92730786680287</v>
+        <v>25.57481631774583</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>CONT0171</t>
+          <t>CONT0573</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -27532,13 +27532,13 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>25.77585694081785</v>
+        <v>22.7994783538864</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>CONT1292</t>
+          <t>CONT0453</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -27582,7 +27582,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>27.72093794662745</v>
+        <v>25.80027672202497</v>
       </c>
     </row>
     <row r="544">
@@ -27638,7 +27638,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>CONT0593</t>
+          <t>CONT0262</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -27682,13 +27682,13 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>23.03355801661776</v>
+        <v>21.09318734915392</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>CONT0135</t>
+          <t>CONT0134</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -27732,13 +27732,13 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>23.21656812376843</v>
+        <v>23.28702301509272</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CONT0200</t>
+          <t>CONT0169</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -27782,13 +27782,13 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>20.92693105118598</v>
+        <v>19.4805243920562</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>CONT0114</t>
+          <t>CONT0236</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -27832,7 +27832,7 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>23.19682011081988</v>
+        <v>25.1449060116874</v>
       </c>
     </row>
     <row r="549">
@@ -27888,7 +27888,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>CONT0377</t>
+          <t>CONT1007</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -27932,13 +27932,13 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>25.04790760822512</v>
+        <v>22.80999909840784</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>CONT0922</t>
+          <t>CONT0066</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>24.69516180911299</v>
+        <v>24.63660828827718</v>
       </c>
     </row>
     <row r="552">

--- a/export/Hasil_Stowage_Plan_Final.xlsx
+++ b/export/Hasil_Stowage_Plan_Final.xlsx
@@ -1588,7 +1588,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CONT0882</t>
+          <t>CONT0556</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>23.64587780239153</v>
+        <v>25.79748193626788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CONT0018</t>
+          <t>CONT0427</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>21.79786120722899</v>
+        <v>21.21649478936889</v>
       </c>
     </row>
     <row r="26">
@@ -1738,7 +1738,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CONT0718</t>
+          <t>CONT0179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>22.49729354733695</v>
+        <v>27.92436410899478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CONT0171</t>
+          <t>CONT0392</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>25.77585694081785</v>
+        <v>22.11826710441573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CONT0840</t>
+          <t>CONT0795</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>23.17303800574569</v>
+        <v>18.52816944526634</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CONT0208</t>
+          <t>CONT0257</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>19.02960731330928</v>
+        <v>18.8229734328598</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CONT0656</t>
+          <t>CONT0336</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>27.88047022290441</v>
+        <v>23.74662527699107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CONT0334</t>
+          <t>CONT1194</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2032,13 +2032,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>24.02005734647031</v>
+        <v>23.82717126450705</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CONT0512</t>
+          <t>CONT0187</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>23.04416965170652</v>
+        <v>18.91696646624891</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CONT1048</t>
+          <t>CONT0648</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>18.32544851199569</v>
+        <v>20.85985136384293</v>
       </c>
     </row>
     <row r="35">
@@ -4938,7 +4938,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CONT0941</t>
+          <t>CONT0045</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>26.56272682266664</v>
+        <v>27.85313067887969</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CONT0504</t>
+          <t>CONT0752</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>25.69447853980771</v>
+        <v>24.78789071524827</v>
       </c>
     </row>
     <row r="93">
@@ -5138,7 +5138,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CONT1240</t>
+          <t>CONT0512</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>27.85289367357482</v>
+        <v>23.04416965170652</v>
       </c>
     </row>
     <row r="96">
@@ -5238,7 +5238,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CONT1164</t>
+          <t>CONT0553</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5282,13 +5282,13 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>22.92312807398505</v>
+        <v>21.62191239094204</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CONT0206</t>
+          <t>CONT0342</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5332,13 +5332,13 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>19.87034157183497</v>
+        <v>20.76107907228689</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CONT0733</t>
+          <t>CONT0185</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>26.42867039326525</v>
+        <v>27.04652231169971</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CONT0386</t>
+          <t>CONT1177</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>23.75501799871316</v>
+        <v>25.63923326305014</v>
       </c>
     </row>
     <row r="101">
@@ -5488,7 +5488,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CONT0806</t>
+          <t>CONT0295</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>18.7712354729769</v>
+        <v>21.47639792536277</v>
       </c>
     </row>
     <row r="103">
@@ -5588,7 +5588,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CONT0583</t>
+          <t>CONT0882</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>24.0185370076696</v>
+        <v>23.64587780239153</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CONT0200</t>
+          <t>CONT1007</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>20.92693105118598</v>
+        <v>22.80999909840784</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CONT0201</t>
+          <t>CONT1253</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>21.04689226725448</v>
+        <v>19.64858026261778</v>
       </c>
     </row>
     <row r="107">
@@ -5788,7 +5788,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CONT0234</t>
+          <t>CONT1183</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>20.54033358787004</v>
+        <v>18.73067536366306</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CONT0871</t>
+          <t>CONT0234</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5882,13 +5882,13 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>19.82000522933492</v>
+        <v>20.54033358787004</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CONT0427</t>
+          <t>CONT1122</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>21.21649478936889</v>
+        <v>21.46853353971891</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CONT0817</t>
+          <t>CONT0706</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>22.47483018062524</v>
+        <v>20.549122251568</v>
       </c>
     </row>
     <row r="112">
@@ -8988,7 +8988,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CONT0044</t>
+          <t>CONT0802</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>25.98667020776673</v>
+        <v>27.61685411432171</v>
       </c>
     </row>
     <row r="173">
@@ -9188,7 +9188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CONT0222</t>
+          <t>CONT0205</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9232,13 +9232,13 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>24.4960760374589</v>
+        <v>27.551615421421</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CONT0407</t>
+          <t>CONT0893</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>25.32710823111863</v>
+        <v>22.66267753076324</v>
       </c>
     </row>
     <row r="178">
@@ -9338,7 +9338,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CONT0339</t>
+          <t>CONT1048</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9382,13 +9382,13 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>20.33714798270237</v>
+        <v>18.32544851199569</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CONT0659</t>
+          <t>CONT0909</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>27.42189232686696</v>
+        <v>26.01124804678616</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CONT1177</t>
+          <t>CONT0231</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9482,13 +9482,13 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>25.63923326305014</v>
+        <v>26.20206293485691</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CONT0893</t>
+          <t>CONT0254</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>22.66267753076324</v>
+        <v>19.55307212712922</v>
       </c>
     </row>
     <row r="183">
@@ -9588,7 +9588,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CONT1054</t>
+          <t>CONT0605</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>27.291535809039</v>
+        <v>26.07891576454032</v>
       </c>
     </row>
     <row r="185">
@@ -9838,7 +9838,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CONT0805</t>
+          <t>CONT0236</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>20.92111952269258</v>
+        <v>25.1449060116874</v>
       </c>
     </row>
     <row r="190">
@@ -9938,7 +9938,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CONT0099</t>
+          <t>CONT0867</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>19.94830831376252</v>
+        <v>18.39716415303731</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CONT0188</t>
+          <t>CONT1240</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -10032,13 +10032,13 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>27.24259068259337</v>
+        <v>27.85289367357482</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CONT0162</t>
+          <t>CONT0107</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>23.28232861349992</v>
+        <v>23.86401254630833</v>
       </c>
     </row>
     <row r="194">
@@ -10188,7 +10188,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CONT1243</t>
+          <t>CONT0573</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10232,13 +10232,13 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>22.53345214156302</v>
+        <v>22.7994783538864</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CONT0342</t>
+          <t>CONT0206</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>20.76107907228689</v>
+        <v>19.87034157183497</v>
       </c>
     </row>
     <row r="198">
@@ -12938,7 +12938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CONT1215</t>
+          <t>CONT0504</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>27.23210878061101</v>
+        <v>25.69447853980771</v>
       </c>
     </row>
     <row r="252">
@@ -13038,7 +13038,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CONT0807</t>
+          <t>CONT0930</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13082,13 +13082,13 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>22.5096628615442</v>
+        <v>19.47038742302419</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CONT0795</t>
+          <t>CONT0871</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -13132,13 +13132,13 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>18.52816944526634</v>
+        <v>19.82000522933492</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CONT0761</t>
+          <t>CONT1054</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>27.21936567886197</v>
+        <v>27.291535809039</v>
       </c>
     </row>
     <row r="256">
@@ -13238,7 +13238,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CONT1140</t>
+          <t>CONT0718</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>22.78961685088655</v>
+        <v>22.49729354733695</v>
       </c>
     </row>
     <row r="258">
@@ -13388,7 +13388,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CONT0477</t>
+          <t>CONT0391</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -13432,13 +13432,13 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>24.95708573780069</v>
+        <v>25.70495325391274</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CONT0906</t>
+          <t>CONT0173</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>21.89368409242365</v>
+        <v>22.49560444825856</v>
       </c>
     </row>
     <row r="262">
@@ -13788,7 +13788,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CONT0528</t>
+          <t>CONT0583</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -13832,13 +13832,13 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>24.94516838668689</v>
+        <v>24.0185370076696</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CONT0368</t>
+          <t>CONT0817</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -13882,13 +13882,13 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>26.65279924522552</v>
+        <v>22.47483018062524</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CONT0114</t>
+          <t>CONT0484</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>23.19682011081988</v>
+        <v>19.70545624764264</v>
       </c>
     </row>
     <row r="271">
@@ -14088,7 +14088,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CONT0525</t>
+          <t>CONT0124</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>19.69169699464708</v>
+        <v>23.28549714979644</v>
       </c>
     </row>
     <row r="275">
@@ -14238,7 +14238,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CONT0900</t>
+          <t>CONT1164</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>22.07659011675664</v>
+        <v>22.92312807398505</v>
       </c>
     </row>
     <row r="278">
@@ -14338,7 +14338,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CONT0779</t>
+          <t>CONT1149</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -14382,13 +14382,13 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>27.05701121550598</v>
+        <v>26.71002275389305</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CONT0670</t>
+          <t>CONT0703</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>24.83737267914435</v>
+        <v>25.5240415318084</v>
       </c>
     </row>
     <row r="281">
@@ -14488,7 +14488,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CONT1253</t>
+          <t>CONT0239</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>19.64858026261778</v>
+        <v>21.27547179421265</v>
       </c>
     </row>
     <row r="283">
@@ -16838,7 +16838,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>CONT0185</t>
+          <t>CONT1136</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -16882,13 +16882,13 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>27.04652231169971</v>
+        <v>25.92929123606821</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CONT0752</t>
+          <t>CONT0547</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>24.78789071524827</v>
+        <v>23.32093687690937</v>
       </c>
     </row>
     <row r="331">
@@ -16988,7 +16988,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>CONT0484</t>
+          <t>CONT0104</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>19.70545624764264</v>
+        <v>19.60388638094598</v>
       </c>
     </row>
     <row r="333">
@@ -17088,7 +17088,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CONT0128</t>
+          <t>CONT0670</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -17132,13 +17132,13 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>24.70976479776643</v>
+        <v>24.83737267914435</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CONT0703</t>
+          <t>CONT1126</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -17182,13 +17182,13 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>25.5240415318084</v>
+        <v>22.25251290695751</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CONT0254</t>
+          <t>CONT0326</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -17232,13 +17232,13 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>19.55307212712922</v>
+        <v>25.24129584134894</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CONT1150</t>
+          <t>CONT1069</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -17282,13 +17282,13 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>24.32628101158234</v>
+        <v>26.77779190262444</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CONT1115</t>
+          <t>CONT1083</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -17332,13 +17332,13 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>24.39283173393456</v>
+        <v>24.69830298062632</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CONT0333</t>
+          <t>CONT0472</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -17382,7 +17382,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>22.12039311047565</v>
+        <v>20.95727377318399</v>
       </c>
     </row>
     <row r="340">
@@ -17538,7 +17538,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CONT0078</t>
+          <t>CONT0171</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -17582,13 +17582,13 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>21.3870823534226</v>
+        <v>25.77585694081785</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CONT1056</t>
+          <t>CONT0169</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>18.88794889846302</v>
+        <v>19.4805243920562</v>
       </c>
     </row>
     <row r="345">
@@ -17688,7 +17688,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CONT0272</t>
+          <t>CONT1150</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -17732,13 +17732,13 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>26.14414386653202</v>
+        <v>24.32628101158234</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CONT1078</t>
+          <t>CONT0805</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -17782,13 +17782,13 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>22.36594564031953</v>
+        <v>20.92111952269258</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CONT0930</t>
+          <t>CONT0417</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -17832,13 +17832,13 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>19.47038742302419</v>
+        <v>19.35359348248094</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CONT1149</t>
+          <t>CONT0779</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -17882,13 +17882,13 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>26.71002275389305</v>
+        <v>27.05701121550598</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CONT0216</t>
+          <t>CONT0560</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17932,7 +17932,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>23.93549040954863</v>
+        <v>24.61243449410931</v>
       </c>
     </row>
     <row r="351">
@@ -18038,7 +18038,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CONT0738</t>
+          <t>CONT0659</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -18082,13 +18082,13 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>26.37466846896668</v>
+        <v>27.42189232686696</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>CONT0547</t>
+          <t>CONT0117</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -18132,13 +18132,13 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>23.32093687690937</v>
+        <v>24.54334002711886</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>CONT0706</t>
+          <t>CONT1297</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>20.549122251568</v>
+        <v>21.95252067126</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CONT0417</t>
+          <t>CONT0810</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>19.35359348248094</v>
+        <v>20.67646326863932</v>
       </c>
     </row>
     <row r="357">
@@ -18288,7 +18288,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CONT0104</t>
+          <t>CONT0222</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>19.60388638094598</v>
+        <v>24.4960760374589</v>
       </c>
     </row>
     <row r="359">
@@ -20238,7 +20238,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>CONT0045</t>
+          <t>CONT0941</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -20282,13 +20282,13 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>27.85313067887969</v>
+        <v>26.56272682266664</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>CONT1083</t>
+          <t>CONT1115</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -20332,13 +20332,13 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>24.69830298062632</v>
+        <v>24.39283173393456</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CONT0173</t>
+          <t>CONT1189</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>22.49560444825856</v>
+        <v>21.91503499647622</v>
       </c>
     </row>
     <row r="400">
@@ -20488,7 +20488,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CONT1285</t>
+          <t>CONT0066</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -20532,13 +20532,13 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>21.51699907743258</v>
+        <v>24.63660828827718</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CONT0824</t>
+          <t>CONT0216</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>21.46176003573066</v>
+        <v>23.93549040954863</v>
       </c>
     </row>
     <row r="404">
@@ -20688,7 +20688,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CONT0391</t>
+          <t>CONT0334</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -20732,7 +20732,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>25.70495325391274</v>
+        <v>24.02005734647031</v>
       </c>
     </row>
     <row r="407">
@@ -20788,7 +20788,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CONT0966</t>
+          <t>CONT0208</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -20832,13 +20832,13 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>20.87482241163825</v>
+        <v>19.02960731330928</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CONT1292</t>
+          <t>CONT0733</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -20882,13 +20882,13 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>27.72093794662745</v>
+        <v>26.42867039326525</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CONT1272</t>
+          <t>CONT0528</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -20932,13 +20932,13 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>23.26259867334703</v>
+        <v>24.94516838668689</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CONT0860</t>
+          <t>CONT0018</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>23.1884322355795</v>
+        <v>21.79786120722899</v>
       </c>
     </row>
     <row r="412">
@@ -21038,7 +21038,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CONT0387</t>
+          <t>CONT0738</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -21082,7 +21082,7 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>25.92730786680287</v>
+        <v>26.37466846896668</v>
       </c>
     </row>
     <row r="414">
@@ -21188,7 +21188,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CONT0187</t>
+          <t>CONT0525</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>18.91696646624891</v>
+        <v>19.69169699464708</v>
       </c>
     </row>
     <row r="417">
@@ -21288,7 +21288,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CONT0560</t>
+          <t>CONT0807</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -21332,13 +21332,13 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>24.61243449410931</v>
+        <v>22.5096628615442</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CONT0553</t>
+          <t>CONT1078</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -21382,13 +21382,13 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>21.62191239094204</v>
+        <v>22.36594564031953</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CONT1297</t>
+          <t>CONT1056</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -21432,13 +21432,13 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>21.95252067126</v>
+        <v>18.88794889846302</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CONT0231</t>
+          <t>CONT0188</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -21482,7 +21482,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>26.20206293485691</v>
+        <v>27.24259068259337</v>
       </c>
     </row>
     <row r="422">
@@ -21538,7 +21538,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CONT1069</t>
+          <t>CONT1285</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -21582,13 +21582,13 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>26.77779190262444</v>
+        <v>21.51699907743258</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CONT0257</t>
+          <t>CONT0078</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -21632,7 +21632,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>18.8229734328598</v>
+        <v>21.3870823534226</v>
       </c>
     </row>
     <row r="425">
@@ -21688,7 +21688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CONT0336</t>
+          <t>CONT1272</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -21732,13 +21732,13 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>23.74662527699107</v>
+        <v>23.26259867334703</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CONT0295</t>
+          <t>CONT0874</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -21782,13 +21782,13 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>21.47639792536277</v>
+        <v>21.34234738888928</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CONT0810</t>
+          <t>CONT0806</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>20.67646326863932</v>
+        <v>18.7712354729769</v>
       </c>
     </row>
     <row r="429">
@@ -23588,7 +23588,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CONT0205</t>
+          <t>CONT0272</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -23632,13 +23632,13 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>27.551615421421</v>
+        <v>26.14414386653202</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CONT1194</t>
+          <t>CONT0477</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -23682,7 +23682,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>23.82717126450705</v>
+        <v>24.95708573780069</v>
       </c>
     </row>
     <row r="466">
@@ -23838,7 +23838,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CONT0392</t>
+          <t>CONT0386</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -23882,13 +23882,13 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>22.11826710441573</v>
+        <v>23.75501799871316</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CONT1122</t>
+          <t>CONT0128</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -23932,13 +23932,13 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>21.46853353971891</v>
+        <v>24.70976479776643</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CONT1183</t>
+          <t>CONT1243</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -23982,13 +23982,13 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>18.73067536366306</v>
+        <v>22.53345214156302</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>CONT0605</t>
+          <t>CONT0761</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -24032,13 +24032,13 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>26.07891576454032</v>
+        <v>27.21936567886197</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CONT0107</t>
+          <t>CONT0656</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -24082,13 +24082,13 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>23.86401254630833</v>
+        <v>27.88047022290441</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CONT1189</t>
+          <t>CONT0824</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -24132,7 +24132,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>21.91503499647622</v>
+        <v>21.46176003573066</v>
       </c>
     </row>
     <row r="475">
@@ -24188,7 +24188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CONT0909</t>
+          <t>CONT0368</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -24232,13 +24232,13 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>26.01124804678616</v>
+        <v>26.65279924522552</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CONT0556</t>
+          <t>CONT0140</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>25.79748193626788</v>
+        <v>25.57481631774583</v>
       </c>
     </row>
     <row r="478">
@@ -24338,7 +24338,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CONT1126</t>
+          <t>CONT0840</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -24382,13 +24382,13 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>22.25251290695751</v>
+        <v>23.17303800574569</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>CONT0802</t>
+          <t>CONT0044</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -24432,13 +24432,13 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>27.61685411432171</v>
+        <v>25.98667020776673</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>CONT0124</t>
+          <t>CONT0756</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -24482,13 +24482,13 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>23.28549714979644</v>
+        <v>23.54032956903697</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CONT0326</t>
+          <t>CONT0339</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -24532,13 +24532,13 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>25.24129584134894</v>
+        <v>20.33714798270237</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CONT0867</t>
+          <t>CONT0099</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -24582,13 +24582,13 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>18.39716415303731</v>
+        <v>19.94830831376252</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CONT1136</t>
+          <t>CONT1292</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -24632,13 +24632,13 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>25.92929123606821</v>
+        <v>27.72093794662745</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>CONT0117</t>
+          <t>CONT1215</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -24682,7 +24682,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>24.54334002711886</v>
+        <v>27.23210878061101</v>
       </c>
     </row>
     <row r="486">
@@ -24738,7 +24738,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CONT0648</t>
+          <t>CONT0966</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -24782,13 +24782,13 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>20.85985136384293</v>
+        <v>20.87482241163825</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CONT0135</t>
+          <t>CONT0134</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -24832,13 +24832,13 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>23.21656812376843</v>
+        <v>23.28702301509272</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>CONT0874</t>
+          <t>CONT0906</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -24882,7 +24882,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>21.34234738888928</v>
+        <v>21.89368409242365</v>
       </c>
     </row>
     <row r="490">
@@ -27088,7 +27088,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>CONT0179</t>
+          <t>CONT0387</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -27132,13 +27132,13 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>27.92436410899478</v>
+        <v>25.92730786680287</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CONT0756</t>
+          <t>CONT0407</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -27182,7 +27182,7 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>23.54032956903697</v>
+        <v>25.32710823111863</v>
       </c>
     </row>
     <row r="536">
@@ -27288,7 +27288,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CONT0377</t>
+          <t>CONT0162</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -27332,13 +27332,13 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>25.04790760822512</v>
+        <v>23.28232861349992</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>CONT0239</t>
+          <t>CONT1140</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -27382,7 +27382,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>21.27547179421265</v>
+        <v>22.78961685088655</v>
       </c>
     </row>
     <row r="540">
@@ -27438,7 +27438,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>CONT0140</t>
+          <t>CONT0377</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -27482,13 +27482,13 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>25.57481631774583</v>
+        <v>25.04790760822512</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>CONT0573</t>
+          <t>CONT0860</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>22.7994783538864</v>
+        <v>23.1884322355795</v>
       </c>
     </row>
     <row r="543">
@@ -27688,7 +27688,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>CONT0134</t>
+          <t>CONT0135</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -27732,13 +27732,13 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>23.28702301509272</v>
+        <v>23.21656812376843</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CONT0169</t>
+          <t>CONT0201</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -27782,13 +27782,13 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>19.4805243920562</v>
+        <v>21.04689226725448</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>CONT0236</t>
+          <t>CONT0114</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -27832,13 +27832,13 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>25.1449060116874</v>
+        <v>23.19682011081988</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>CONT0472</t>
+          <t>CONT0333</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -27882,13 +27882,13 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>20.95727377318399</v>
+        <v>22.12039311047565</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>CONT1007</t>
+          <t>CONT0200</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -27932,13 +27932,13 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>22.80999909840784</v>
+        <v>20.92693105118598</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>CONT0066</t>
+          <t>CONT0900</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>24.63660828827718</v>
+        <v>22.07659011675664</v>
       </c>
     </row>
     <row r="552">
